--- a/ANÁLISE DE RESULTADOS.xlsx
+++ b/ANÁLISE DE RESULTADOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>q1</t>
   </si>
@@ -119,28 +119,25 @@
     <t>MÉDIA</t>
   </si>
   <si>
-    <t>ENTRADA DA ANÁLISE</t>
-  </si>
-  <si>
     <t>USUÁRIOS INTERNOS</t>
   </si>
   <si>
-    <t>SAS</t>
-  </si>
-  <si>
     <t>CALCULA AMOSTRA</t>
   </si>
   <si>
-    <t>AMOSTRA INTERNOS</t>
-  </si>
-  <si>
-    <t>Amostra é significativa se AMOSTRA &lt;= USUÁRIOS</t>
-  </si>
-  <si>
     <t>USUÁRIOS EXTERNOS</t>
   </si>
   <si>
     <t>MÉDIA TOTAL</t>
+  </si>
+  <si>
+    <t>AMOSTRA SIGNIFICATIVA</t>
+  </si>
+  <si>
+    <t>AMOSTRA MÍNIMA</t>
+  </si>
+  <si>
+    <t>ENTRADA DA ANÁLISE - SAS</t>
   </si>
 </sst>
 </file>
@@ -205,13 +202,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J44"/>
+  <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,13 +1196,13 @@
         <v>26</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
         <v>27</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1207,14 +1211,14 @@
       </c>
       <c r="D30">
         <f>D29*21</f>
-        <v>84</v>
+        <v>3276</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
       </c>
       <c r="I30">
         <f>I29*21</f>
-        <v>63</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1260,7 +1264,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="2">
         <f>D32/D29</f>
-        <v>42</v>
+        <v>1.0769230769230769</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
@@ -1270,91 +1274,117 @@
       <c r="H33" s="1"/>
       <c r="I33" s="2">
         <f>I32/I29</f>
-        <v>56</v>
+        <v>0.45040214477211798</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I34" s="2">
         <f>((D33*7)+(I33*3))/10</f>
-        <v>46.2</v>
+        <v>0.88896679727778927</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1">
+        <v>260</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="1">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>42</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I39" s="5">
         <v>56</v>
       </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="2">
-        <f>((D38*7)+(I38*3))/10</f>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8">
+        <f>((D39*7)+(I39*3))/10</f>
         <v>46.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="2">
-        <f>(D37*0.5*1.96^2) / ((0.5*1.96^2) + (D37*0.05^2))</f>
-        <v>19.492591840876802</v>
-      </c>
-      <c r="I41" s="2">
-        <f>(I37*0.5*1.96^2) / ((0.5*1.96^2) + (I37*0.05^2))</f>
-        <v>9.8715181416384006</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
+      <c r="D42" s="2">
+        <f>(D38*0.25*1.96^2) / ((0.25*1.96^2) + ((D38-1)*0.05^2))</f>
+        <v>155.29821506312581</v>
+      </c>
+      <c r="I42" s="2">
+        <f>(I38*0.25*1.96^2) / ((0.25*1.96^2) + ((I38-1)*0.05^2))</f>
+        <v>373.16149549134872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="6" t="str">
+        <f>IF(D29&gt;=D42,"S","N")</f>
+        <v>S</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f>IF(I29&gt;=I42,"S","N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A36:I36"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ANÁLISE DE RESULTADOS.xlsx
+++ b/ANÁLISE DE RESULTADOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>q1</t>
   </si>
@@ -138,13 +138,73 @@
   </si>
   <si>
     <t>ENTRADA DA ANÁLISE - SAS</t>
+  </si>
+  <si>
+    <t>FORM1</t>
+  </si>
+  <si>
+    <t>FORM2</t>
+  </si>
+  <si>
+    <t>FORM3</t>
+  </si>
+  <si>
+    <t>FORM4</t>
+  </si>
+  <si>
+    <t>FORM5</t>
+  </si>
+  <si>
+    <t>FORM6</t>
+  </si>
+  <si>
+    <t>FORM7</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>DESV</t>
+  </si>
+  <si>
+    <t>GRAU DE DISPERSÃO</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>se DESV &gt; 15 %, então a MED não é representativa do conjunto dos dados</t>
+  </si>
+  <si>
+    <t>ALTERNATIVAS À MÉDIA</t>
+  </si>
+  <si>
+    <t>1)FUNÇÃO DE CUSTO DE ERRO ABSOLUTO</t>
+  </si>
+  <si>
+    <t>b) M - S:</t>
+  </si>
+  <si>
+    <t>a) 1 / N:</t>
+  </si>
+  <si>
+    <t>2)FUNÇÃO DE CUSTO DE ERRO DE RAIZ QUADRADA</t>
+  </si>
+  <si>
+    <t>3) ERRO PERCENTUAL ABSOLUTO MÉDIO (MAPE PONDERADO)</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Dados homogêneos se CV &lt; 15%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +241,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -216,6 +292,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,14 +590,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="10.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
@@ -894,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -920,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -946,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -972,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -998,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1023,8 +1143,13 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1049,8 +1174,20 @@
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1082,12 +1219,28 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I23" s="1">
-        <f>SUM(B23:H23)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I23" s="1"/>
+      <c r="J23" s="11">
+        <f>MEDIAN(B23:H23)</f>
+        <v>42</v>
+      </c>
+      <c r="K23" s="11">
+        <f>_xlfn.VAR.S(B23:H23)</f>
+        <v>987</v>
+      </c>
+      <c r="L23" s="16">
+        <f>_xlfn.STDEV.S(B23:H23)</f>
+        <v>31.416556144810016</v>
+      </c>
+      <c r="M23" s="16">
+        <f>(L23/J23)*100</f>
+        <v>74.801324154309569</v>
+      </c>
+      <c r="N23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1138,8 +1291,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1164,8 +1320,12 @@
       <c r="H26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="1" t="str">
+        <f>IF(L23&gt;(0.15*J23),"MED NÃO É REPRESENTATIVA","MED É REPRESENTATIVA")</f>
+        <v>MED NÃO É REPRESENTATIVA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1191,37 +1351,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K28" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="D29">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>27</v>
       </c>
       <c r="I29">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="D30">
         <f>D29*21</f>
-        <v>3276</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
       </c>
       <c r="I30">
         <f>I29*21</f>
-        <v>7833</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30">
+        <f>ABS(1/7*((J23-B23)+(J23-C23)+(J23-D23)+(J23-E23)+(J23-F23)+(J23-G23)+(J23-H23)))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1234,8 +1409,43 @@
       <c r="I31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:S31" si="1">ABS($J$23-B23)</f>
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1256,7 +1466,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1474,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="2">
         <f>D32/D29</f>
-        <v>1.0769230769230769</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
@@ -1274,116 +1484,255 @@
       <c r="H33" s="1"/>
       <c r="I33" s="2">
         <f>I32/I29</f>
-        <v>0.45040214477211798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="I34" s="2">
         <f>((D33*7)+(I33*3))/10</f>
-        <v>0.88896679727778927</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>46.2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="13">
+        <f>1/7*SQRT(ABS(((J27-B27)+(J27-C27)+(J27-D27)+(J27-E27)+(J27-F27)+(J27-G27)+(J27-H27))))</f>
+        <v>0.47380354147934278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="K35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="13">
+        <f>SQRT(ABS($J$23-B23))</f>
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" ref="M35:S35" si="2">SQRT(ABS($J$23-C23))</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="13">
+        <f t="shared" si="2"/>
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="O35" s="13">
+        <f t="shared" si="2"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P35" s="13">
+        <f t="shared" si="2"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="Q35" s="13">
+        <f t="shared" si="2"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="R35" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="13">
+        <f t="shared" si="2"/>
+        <v>6.4807406984078604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1">
+        <v>260</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="1">
+        <v>13000</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="1">
-        <v>260</v>
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="1">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
         <v>30</v>
       </c>
-      <c r="D39">
-        <v>42</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="5">
+      <c r="I38" s="5">
         <v>56</v>
       </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="J38" s="3"/>
+      <c r="K38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="13">
+        <f>(1/7*1/B23*ABS($J$23-B23))*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="M38" s="13">
+        <f t="shared" ref="M38:S38" si="3">(1/7*1/C23*ABS($J$23-C23))*100</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047628</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="P38" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="R38" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
+        <f>((D38*7)+(I38*3))/10</f>
+        <v>46.2</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="K39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39">
+        <f>ABS(($J$23-B23))/$J$23</f>
+        <v>0.5</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:S39" si="4">ABS(($J$23-C23))/$J$23</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="8">
-        <f>((D39*7)+(I39*3))/10</f>
-        <v>46.2</v>
-      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="2">
-        <f>(D38*0.25*1.96^2) / ((0.25*1.96^2) + ((D38-1)*0.05^2))</f>
+        <f>(D37*0.25*1.96^2) / ((0.25*1.96^2) + ((D37-1)*0.05^2))</f>
         <v>155.29821506312581</v>
       </c>
       <c r="I42" s="2">
-        <f>(I38*0.25*1.96^2) / ((0.25*1.96^2) + ((I38-1)*0.05^2))</f>
+        <f>(I37*0.25*1.96^2) / ((0.25*1.96^2) + ((I37-1)*0.05^2))</f>
         <v>373.16149549134872</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="6" t="str">
         <f>IF(D29&gt;=D42,"S","N")</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="I43" s="6" t="str">
         <f>IF(I29&gt;=I42,"S","N")</f>
         <v>N</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="J21:L21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
